--- a/data/trans_camb/P4_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P4_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>-12,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>4,64</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,84</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3,87</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-4,74</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 18,06</t>
+          <t>-26,94; 44,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 20,17</t>
+          <t>-26,94; 43,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,47; 27,57</t>
+          <t>-25,24; 49,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 14,84</t>
+          <t>-48,49; 9,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 13,08</t>
+          <t>-20,3; 23,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 13,57</t>
+          <t>-21,63; 20,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 12,48</t>
+          <t>-21,16; 20,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 9,83</t>
+          <t>-18,98; 29,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 18,07</t>
+          <t>-17,29; 25,71</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-18,04; 24,92</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-17,21; 30,16</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-25,12; 13,12</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-7,21%</t>
+          <t>12,3%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,91%</t>
+          <t>12,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>-40,72%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>4,33%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-1,36%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,96%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-1,39%</t>
+          <t>-1,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-3,9%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>8,45%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5,63%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>11,85%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-14,53%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-58,24; 100,85</t>
+          <t>-77,31; 257,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-56,77; 106,81</t>
+          <t>-76,17; 255,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-53,45; 155,25</t>
+          <t>-73,7; 309,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,33; 59,34</t>
+          <t>-90,13; 61,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,15; 54,01</t>
+          <t>-46,28; 107,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,01; 55,09</t>
+          <t>-50,25; 92,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-32,79; 53,92</t>
+          <t>-49,91; 98,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,77; 42,99</t>
+          <t>-45,77; 134,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-30,51; 78,55</t>
+          <t>-44,71; 121,52</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-47,09; 117,21</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-45,72; 134,33</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-58,86; 58,23</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,91</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 9,55</t>
+          <t>-13,6; 14,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 8,43</t>
+          <t>-14,27; 11,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 10,04</t>
+          <t>-13,69; 13,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 7,79</t>
+          <t>-15,05; 10,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 10,17</t>
+          <t>-10,24; 7,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 7,84</t>
+          <t>-7,09; 9,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 6,86</t>
+          <t>-6,85; 10,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 6,75</t>
+          <t>-7,03; 12,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 6,23</t>
+          <t>-8,78; 8,55</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-7,28; 9,16</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-7,6; 10,38</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-5,65; 9,48</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,09%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,8%</t>
+          <t>-0,99%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>-4,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>-1,13%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3,56%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6,03%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9,46%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-37,97; 51,21</t>
+          <t>-51,92; 95,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,22; 46,08</t>
+          <t>-53,06; 86,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-38,14; 53,51</t>
+          <t>-51,26; 95,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,94; 40,35</t>
+          <t>-52,84; 69,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,68; 49,28</t>
+          <t>-39,72; 49,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,59; 39,38</t>
+          <t>-30,89; 65,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,41; 33,51</t>
+          <t>-29,04; 67,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,99; 33,47</t>
+          <t>-30,33; 75,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-22,52; 30,88</t>
+          <t>-35,49; 51,5</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-29,38; 57,71</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-31,15; 66,46</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-24,25; 60,85</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,41</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,36</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 9,67</t>
+          <t>-12,48; 12,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 11,62</t>
+          <t>-11,72; 14,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 11,45</t>
+          <t>-12,35; 12,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 9,04</t>
+          <t>-13,53; 9,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 9,21</t>
+          <t>-7,39; 11,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 9,83</t>
+          <t>-7,69; 10,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 6,81</t>
+          <t>-7,1; 12,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 7,44</t>
+          <t>-10,98; 7,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 7,99</t>
+          <t>-7,04; 8,71</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-6,15; 10,02</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-6,07; 9,51</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-9,35; 5,68</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>-2,06%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>-7,11%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>-5,51%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>2,97%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>6,21%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>8,15%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-6,03%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-36,76; 66,77</t>
+          <t>-43,16; 81,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-33,44; 85,88</t>
+          <t>-39,09; 82,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,12; 84,7</t>
+          <t>-41,01; 73,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,12; 49,58</t>
+          <t>-46,7; 55,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 51,67</t>
+          <t>-31,18; 66,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,54; 52,92</t>
+          <t>-30,15; 61,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-23,03; 38,39</t>
+          <t>-26,43; 71,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,53; 41,61</t>
+          <t>-40,47; 44,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 44,76</t>
+          <t>-26,32; 46,05</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-23,45; 53,48</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-22,54; 49,69</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-35,09; 30,23</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 6,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 6,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 8,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 5,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 6,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 5,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 4,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 4,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 5,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,18; 34,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 35,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,8; 43,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 24,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 27,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,13; 25,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-15,01; 21,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-13,9; 21,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 25,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,71</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-2,26</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1,51</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2,32</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1,13</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-9,26; 11,11</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-8,78; 10,87</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-8,58; 12,62</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-13,07; 4,86</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-5,68; 7,23</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-4,7; 7,69</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-4,24; 8,7</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-4,6; 9,55</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-4,89; 7,38</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-4,06; 7,5</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-3,6; 8,79</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-5,77; 5,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2,71%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>3,08%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>7,32%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-9,68%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2,28%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>6,79%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>9,01%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>10,45%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2,47%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>4,95%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>8,26%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-0,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-34,35; 58,79</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-32,81; 59,55</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-31,18; 67,39</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-43,09; 25,51</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-22,62; 38,05</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-19,33; 41,35</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-18,32; 45,0</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-18,13; 49,69</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-19,43; 36,61</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-16,53; 35,96</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-14,55; 44,65</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-21,86; 26,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
